--- a/id.xlsx
+++ b/id.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\hardware-store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B870C715-517C-44FC-B3C5-262959F63EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFC07C5-7232-4C7D-A393-43BF45E7CDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>b005d6a5f</t>
   </si>
@@ -391,6 +391,12 @@
   </si>
   <si>
     <t>Apple iPhone 13 128GB Midnight mobile phone (MLPF3HU / a)</t>
+  </si>
+  <si>
+    <t>Motorola G32 6/128GB Satin Maroon mobile phone (without charger)</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Samsung Galaxy A34 8/256GB Light Green (SM-A346ELGESEK)</t>
   </si>
 </sst>
 </file>
@@ -719,13 +725,13 @@
   <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.44140625" customWidth="1"/>
+    <col min="2" max="2" width="81.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -745,13 +751,19 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
